--- a/dataExcel/【M4A1 消音型 _ 金蛇缠绕 (破损不堪)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【M4A1 消音型 _ 金蛇缠绕 (破损不堪)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 14:40:47</v>
+        <v>2023-09-19 09:09:07</v>
       </c>
       <c r="B8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C8">
-        <v>338.97</v>
+        <v>352.62</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0.39</v>
@@ -449,27 +449,27 @@
         <v>0.31</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>258</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 18:25:42</v>
+        <v>2023-09-19 12:48:11</v>
       </c>
       <c r="B9">
-        <v>278</v>
+        <v>272.5</v>
       </c>
       <c r="C9">
-        <v>338.97</v>
+        <v>352.62</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0.39</v>
@@ -478,27 +478,27 @@
         <v>0.31</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 22:13:33</v>
+        <v>2023-09-19 16:26:17</v>
       </c>
       <c r="B10">
-        <v>275</v>
+        <v>271.89</v>
       </c>
       <c r="C10">
-        <v>338.97</v>
+        <v>352.62</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0.39</v>
@@ -507,445 +507,445 @@
         <v>0.31</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>258</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 02:02:10</v>
+        <v>2023-09-19 20:07:02</v>
       </c>
       <c r="B11">
-        <v>279.39</v>
+        <v>271.89</v>
       </c>
       <c r="C11">
-        <v>338.97</v>
+        <v>352.62</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F11">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 05:39:17</v>
+        <v>2023-09-19 23:47:55</v>
       </c>
       <c r="B12">
-        <v>279.39</v>
+        <v>270.5</v>
       </c>
       <c r="C12">
-        <v>339.43</v>
+        <v>352.62</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F12">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 09:31:41</v>
+        <v>2023-09-20 03:27:08</v>
       </c>
       <c r="B13">
-        <v>275</v>
+        <v>270.5</v>
       </c>
       <c r="C13">
-        <v>339.43</v>
+        <v>354.7</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F13">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>259</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 13:18:54</v>
+        <v>2023-09-20 07:06:41</v>
       </c>
       <c r="B14">
-        <v>275</v>
+        <v>270.5</v>
       </c>
       <c r="C14">
-        <v>339.43</v>
+        <v>354.7</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F14">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 17:01:19</v>
+        <v>2023-09-20 10:41:29</v>
       </c>
       <c r="B15">
-        <v>273</v>
+        <v>270.5</v>
       </c>
       <c r="C15">
-        <v>339.43</v>
+        <v>354.7</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="F15">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 20:36:40</v>
+        <v>2023-09-20 14:26:43</v>
       </c>
       <c r="B16">
-        <v>271</v>
+        <v>270.5</v>
       </c>
       <c r="C16">
-        <v>339.43</v>
+        <v>354.7</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F16">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 00:17:55</v>
+        <v>2023-09-20 18:04:40</v>
       </c>
       <c r="B17">
         <v>270.5</v>
       </c>
       <c r="C17">
-        <v>339.43</v>
+        <v>354.7</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F17">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H17">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 03:58:08</v>
+        <v>2023-09-20 21:38:49</v>
       </c>
       <c r="B18">
-        <v>271</v>
+        <v>271.89</v>
       </c>
       <c r="C18">
-        <v>335.99</v>
+        <v>354.7</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F18">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 07:30:18</v>
+        <v>2023-09-21 01:19:24</v>
       </c>
       <c r="B19">
-        <v>271</v>
+        <v>271.89</v>
       </c>
       <c r="C19">
-        <v>335.99</v>
+        <v>354.7</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F19">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 07:35:21</v>
+        <v>2023-09-21 04:59:56</v>
       </c>
       <c r="B20">
-        <v>271</v>
+        <v>271.89</v>
       </c>
       <c r="C20">
-        <v>335.99</v>
+        <v>303.29</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F20">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H20">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 11:16:06</v>
+        <v>2023-09-21 08:38:02</v>
       </c>
       <c r="B21">
-        <v>273</v>
+        <v>271.89</v>
       </c>
       <c r="C21">
-        <v>335.99</v>
+        <v>303.29</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F21">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 14:58:04</v>
+        <v>2023-09-21 12:15:53</v>
       </c>
       <c r="B22">
-        <v>273</v>
+        <v>271.89</v>
       </c>
       <c r="C22">
-        <v>335.99</v>
+        <v>303.29</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E22">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F22">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H22">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 18:34:10</v>
+        <v>2023-09-21 15:55:03</v>
       </c>
       <c r="B23">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C23">
-        <v>335.99</v>
+        <v>303.29</v>
       </c>
       <c r="D23">
         <v>42</v>
       </c>
       <c r="E23">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F23">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 22:12:20</v>
+        <v>2023-09-21 19:35:16</v>
       </c>
       <c r="B24">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C24">
-        <v>335.99</v>
+        <v>303.29</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F24">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 01:52:23</v>
+        <v>2023-09-21 23:10:11</v>
       </c>
       <c r="B25">
-        <v>273</v>
+        <v>274.99</v>
       </c>
       <c r="C25">
-        <v>335.99</v>
+        <v>303.29</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F25">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -953,28 +953,28 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 05:31:24</v>
+        <v>2023-09-22 02:48:09</v>
       </c>
       <c r="B26">
-        <v>273</v>
+        <v>274.99</v>
       </c>
       <c r="C26">
-        <v>352.62</v>
+        <v>333.84</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F26">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -982,28 +982,28 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 09:09:07</v>
+        <v>2023-09-22 06:26:42</v>
       </c>
       <c r="B27">
-        <v>273</v>
+        <v>274.99</v>
       </c>
       <c r="C27">
-        <v>352.62</v>
+        <v>333.84</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F27">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H27">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -1011,202 +1011,202 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 12:48:11</v>
+        <v>2023-09-22 10:08:56</v>
       </c>
       <c r="B28">
-        <v>272.5</v>
+        <v>274.99</v>
       </c>
       <c r="C28">
-        <v>352.62</v>
+        <v>333.84</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F28">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 16:26:17</v>
+        <v>2023-09-22 13:46:38</v>
       </c>
       <c r="B29">
-        <v>271.89</v>
+        <v>275</v>
       </c>
       <c r="C29">
-        <v>352.62</v>
+        <v>333.84</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="F29">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 20:07:02</v>
+        <v>2023-09-22 17:26:08</v>
       </c>
       <c r="B30">
-        <v>271.89</v>
+        <v>274</v>
       </c>
       <c r="C30">
-        <v>352.62</v>
+        <v>333.84</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H30">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 23:47:55</v>
+        <v>2023-09-22 21:07:18</v>
       </c>
       <c r="B31">
-        <v>270.5</v>
+        <v>274</v>
       </c>
       <c r="C31">
-        <v>352.62</v>
+        <v>333.84</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F31">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H31">
         <v>258</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 03:27:08</v>
+        <v>2023-09-22 21:11:49</v>
       </c>
       <c r="B32">
-        <v>270.5</v>
+        <v>274</v>
       </c>
       <c r="C32">
-        <v>354.7</v>
+        <v>333.84</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F32">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H32">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 07:06:41</v>
+        <v>2023-09-23 00:44:33</v>
       </c>
       <c r="B33">
-        <v>270.5</v>
+        <v>275</v>
       </c>
       <c r="C33">
-        <v>354.7</v>
+        <v>333.84</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="F33">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I33">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 10:41:29</v>
+        <v>2023-09-23 04:27:02</v>
       </c>
       <c r="B34">
-        <v>270.5</v>
+        <v>275</v>
       </c>
       <c r="C34">
-        <v>354.7</v>
+        <v>329.29</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F34">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -1214,28 +1214,28 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 14:26:43</v>
+        <v>2023-09-23 08:05:00</v>
       </c>
       <c r="B35">
-        <v>270.5</v>
+        <v>275</v>
       </c>
       <c r="C35">
-        <v>354.7</v>
+        <v>329.29</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>0.37</v>
       </c>
       <c r="F35">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I35">
         <v>8</v>
@@ -1243,115 +1243,115 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 18:04:40</v>
+        <v>2023-09-23 11:42:11</v>
       </c>
       <c r="B36">
-        <v>270.5</v>
+        <v>275</v>
       </c>
       <c r="C36">
-        <v>354.7</v>
+        <v>329.29</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>0.37</v>
       </c>
       <c r="F36">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G36">
         <v>22</v>
       </c>
       <c r="H36">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I36">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 21:38:49</v>
+        <v>2023-09-23 15:18:03</v>
       </c>
       <c r="B37">
-        <v>271.89</v>
+        <v>275</v>
       </c>
       <c r="C37">
-        <v>354.7</v>
+        <v>329.29</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>0.37</v>
       </c>
       <c r="F37">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-21 01:19:24</v>
+        <v>2023-09-23 18:55:50</v>
       </c>
       <c r="B38">
-        <v>271.89</v>
+        <v>277</v>
       </c>
       <c r="C38">
-        <v>354.7</v>
+        <v>329.29</v>
       </c>
       <c r="D38">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E38">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F38">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H38">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I38">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-21 04:59:56</v>
+        <v>2023-09-23 22:35:32</v>
       </c>
       <c r="B39">
-        <v>271.89</v>
+        <v>277</v>
       </c>
       <c r="C39">
-        <v>303.29</v>
+        <v>329.29</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F39">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="G39">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I39">
         <v>9</v>
@@ -1359,28 +1359,28 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-21 08:38:02</v>
+        <v>2023-09-24 02:16:35</v>
       </c>
       <c r="B40">
-        <v>271.89</v>
+        <v>277</v>
       </c>
       <c r="C40">
-        <v>303.29</v>
+        <v>326.17</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="F40">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I40">
         <v>9</v>
@@ -1388,28 +1388,28 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 12:15:53</v>
+        <v>2023-09-24 05:54:58</v>
       </c>
       <c r="B41">
-        <v>271.89</v>
+        <v>277</v>
       </c>
       <c r="C41">
-        <v>303.29</v>
+        <v>326.17</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="F41">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G41">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H41">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I41">
         <v>9</v>
@@ -1417,25 +1417,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 15:55:03</v>
+        <v>2023-09-24 09:35:15</v>
       </c>
       <c r="B42">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C42">
-        <v>303.29</v>
+        <v>326.17</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E42">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="F42">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>260</v>
@@ -1446,25 +1446,25 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 19:35:16</v>
+        <v>2023-09-24 13:12:21</v>
       </c>
       <c r="B43">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C43">
-        <v>303.29</v>
+        <v>326.17</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E43">
+        <v>0.45</v>
+      </c>
+      <c r="F43">
         <v>0.37</v>
       </c>
-      <c r="F43">
-        <v>0.3</v>
-      </c>
       <c r="G43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>260</v>
@@ -1475,54 +1475,54 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 23:10:11</v>
+        <v>2023-09-24 16:48:44</v>
       </c>
       <c r="B44">
-        <v>274.99</v>
+        <v>271.89</v>
       </c>
       <c r="C44">
-        <v>303.29</v>
+        <v>326.17</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="F44">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H44">
         <v>260</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-22 02:48:09</v>
+        <v>2023-09-24 20:28:08</v>
       </c>
       <c r="B45">
-        <v>274.99</v>
+        <v>271.89</v>
       </c>
       <c r="C45">
-        <v>333.84</v>
+        <v>326.17</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="F45">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H45">
         <v>260</v>
@@ -1533,144 +1533,144 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-22 06:26:42</v>
+        <v>2023-09-25 00:07:38</v>
       </c>
       <c r="B46">
-        <v>274.99</v>
+        <v>271</v>
       </c>
       <c r="C46">
-        <v>333.84</v>
+        <v>326.17</v>
       </c>
       <c r="D46">
         <v>42</v>
       </c>
       <c r="E46">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F46">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-22 10:08:56</v>
+        <v>2023-09-25 03:49:05</v>
       </c>
       <c r="B47">
-        <v>274.99</v>
+        <v>271</v>
       </c>
       <c r="C47">
-        <v>333.84</v>
+        <v>320.64</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F47">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H47">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 13:46:38</v>
+        <v>2023-09-25 07:27:48</v>
       </c>
       <c r="B48">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C48">
-        <v>333.84</v>
+        <v>320.64</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E48">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F48">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="G48">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-22 17:26:08</v>
+        <v>2023-09-25 11:08:50</v>
       </c>
       <c r="B49">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C49">
-        <v>333.84</v>
+        <v>320.64</v>
       </c>
       <c r="D49">
         <v>43</v>
       </c>
       <c r="E49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F49">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="G49">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-22 21:07:18</v>
+        <v>2023-09-25 14:43:57</v>
       </c>
       <c r="B50">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C50">
-        <v>333.84</v>
+        <v>320.64</v>
       </c>
       <c r="D50">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="F50">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="G50">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H50">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I50">
         <v>6</v>
@@ -1678,57 +1678,57 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-22 21:11:49</v>
+        <v>2023-09-25 18:20:47</v>
       </c>
       <c r="B51">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C51">
-        <v>333.84</v>
+        <v>320.64</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F51">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="G51">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H51">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-23 00:44:33</v>
+        <v>2023-09-25 18:26:24</v>
       </c>
       <c r="B52">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C52">
-        <v>333.84</v>
+        <v>320.64</v>
       </c>
       <c r="D52">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E52">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F52">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="G52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I52">
         <v>7</v>
@@ -1736,231 +1736,231 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-23 04:27:02</v>
+        <v>2023-09-25 22:05:32</v>
       </c>
       <c r="B53">
         <v>275</v>
       </c>
       <c r="C53">
-        <v>329.29</v>
+        <v>320.64</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F53">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H53">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I53">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-23 08:05:00</v>
+        <v>2023-09-26 01:37:06</v>
       </c>
       <c r="B54">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C54">
-        <v>329.29</v>
+        <v>320.64</v>
       </c>
       <c r="D54">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E54">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F54">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G54">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 11:42:11</v>
+        <v>2023-09-26 01:43:28</v>
       </c>
       <c r="B55">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C55">
-        <v>329.29</v>
+        <v>320.64</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F55">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G55">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 15:18:03</v>
+        <v>2023-09-26 05:19:35</v>
       </c>
       <c r="B56">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C56">
-        <v>329.29</v>
+        <v>325.13</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F56">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 18:55:50</v>
+        <v>2023-09-26 08:58:08</v>
       </c>
       <c r="B57">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57">
-        <v>329.29</v>
+        <v>325.13</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="F57">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="G57">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H57">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 22:35:32</v>
+        <v>2023-09-26 12:38:26</v>
       </c>
       <c r="B58">
-        <v>277</v>
+        <v>275.98</v>
       </c>
       <c r="C58">
-        <v>329.29</v>
+        <v>325.13</v>
       </c>
       <c r="D58">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="F58">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H58">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I58">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-24 02:16:35</v>
+        <v>2023-09-26 16:18:54</v>
       </c>
       <c r="B59">
-        <v>277</v>
+        <v>275.98</v>
       </c>
       <c r="C59">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F59">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H59">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-24 05:54:58</v>
+        <v>2023-09-26 19:57:08</v>
       </c>
       <c r="B60">
-        <v>277</v>
+        <v>275.48</v>
       </c>
       <c r="C60">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F60">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I60">
         <v>9</v>
@@ -1968,115 +1968,115 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 09:35:15</v>
+        <v>2023-09-26 23:36:47</v>
       </c>
       <c r="B61">
-        <v>277</v>
+        <v>275.98</v>
       </c>
       <c r="C61">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E61">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F61">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H61">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 13:12:21</v>
+        <v>2023-09-27 03:14:04</v>
       </c>
       <c r="B62">
-        <v>277</v>
+        <v>275.98</v>
       </c>
       <c r="C62">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E62">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F62">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H62">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 16:48:44</v>
+        <v>2023-09-27 06:50:16</v>
       </c>
       <c r="B63">
-        <v>271.89</v>
+        <v>275.98</v>
       </c>
       <c r="C63">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D63">
         <v>39</v>
       </c>
       <c r="E63">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F63">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H63">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 20:28:08</v>
+        <v>2023-09-27 10:30:10</v>
       </c>
       <c r="B64">
-        <v>271.89</v>
+        <v>275.98</v>
       </c>
       <c r="C64">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D64">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F64">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="G64">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H64">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I64">
         <v>9</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 00:07:38</v>
+        <v>2023-09-27 14:08:25</v>
       </c>
       <c r="B65">
-        <v>271</v>
+        <v>275.98</v>
       </c>
       <c r="C65">
-        <v>326.17</v>
+        <v>325.13</v>
       </c>
       <c r="D65">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E65">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="F65">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G65">
         <v>14</v>
@@ -2108,149 +2108,149 @@
         <v>258</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-25 03:49:05</v>
+        <v>2023-09-27 17:50:10</v>
       </c>
       <c r="B66">
-        <v>271</v>
+        <v>275.48</v>
       </c>
       <c r="C66">
-        <v>320.64</v>
+        <v>325.13</v>
       </c>
       <c r="D66">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E66">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="F66">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G66">
         <v>14</v>
       </c>
       <c r="H66">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-25 07:27:48</v>
+        <v>2023-09-27 21:29:54</v>
       </c>
       <c r="B67">
-        <v>271</v>
+        <v>275.98</v>
       </c>
       <c r="C67">
-        <v>320.64</v>
+        <v>325.13</v>
       </c>
       <c r="D67">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E67">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="F67">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G67">
         <v>13</v>
       </c>
       <c r="H67">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 11:08:50</v>
+        <v>2023-09-28 01:09:03</v>
       </c>
       <c r="B68">
-        <v>270</v>
+        <v>275.98</v>
       </c>
       <c r="C68">
-        <v>320.64</v>
+        <v>325.13</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E68">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F68">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H68">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 14:43:57</v>
+        <v>2023-09-28 04:44:50</v>
       </c>
       <c r="B69">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C69">
-        <v>320.64</v>
+        <v>314.47</v>
       </c>
       <c r="D69">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E69">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F69">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 18:20:47</v>
+        <v>2023-09-28 08:19:47</v>
       </c>
       <c r="B70">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C70">
-        <v>320.64</v>
+        <v>314.47</v>
       </c>
       <c r="D70">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E70">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F70">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G70">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H70">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I70">
         <v>7</v>
@@ -2258,28 +2258,28 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 18:26:24</v>
+        <v>2023-09-28 11:59:25</v>
       </c>
       <c r="B71">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C71">
-        <v>320.64</v>
+        <v>314.47</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F71">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G71">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H71">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I71">
         <v>7</v>
@@ -2287,567 +2287,567 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 22:05:32</v>
+        <v>2023-09-28 15:37:45</v>
       </c>
       <c r="B72">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C72">
-        <v>320.64</v>
+        <v>314.47</v>
       </c>
       <c r="D72">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E72">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F72">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="G72">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H72">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 01:37:06</v>
+        <v>2023-09-28 19:19:11</v>
       </c>
       <c r="B73">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C73">
-        <v>320.64</v>
+        <v>314.47</v>
       </c>
       <c r="D73">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E73">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F73">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="G73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H73">
         <v>255</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 01:43:28</v>
+        <v>2023-09-28 22:58:46</v>
       </c>
       <c r="B74">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C74">
-        <v>320.64</v>
+        <v>314.47</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E74">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F74">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="G74">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H74">
         <v>255</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 05:19:35</v>
+        <v>2023-09-29 02:39:46</v>
       </c>
       <c r="B75">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C75">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D75">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E75">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="F75">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="G75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H75">
         <v>255</v>
       </c>
       <c r="I75">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 08:58:08</v>
+        <v>2023-09-29 06:20:10</v>
       </c>
       <c r="B76">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C76">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D76">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E76">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="F76">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="G76">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H76">
         <v>255</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 12:38:26</v>
+        <v>2023-09-29 10:00:48</v>
       </c>
       <c r="B77">
-        <v>275.98</v>
+        <v>265</v>
       </c>
       <c r="C77">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D77">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E77">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="F77">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="G77">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H77">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 16:18:54</v>
+        <v>2023-09-29 13:38:37</v>
       </c>
       <c r="B78">
-        <v>275.98</v>
+        <v>260</v>
       </c>
       <c r="C78">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D78">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E78">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="F78">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="G78">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H78">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 19:57:08</v>
+        <v>2023-09-29 17:15:08</v>
       </c>
       <c r="B79">
-        <v>275.48</v>
+        <v>259</v>
       </c>
       <c r="C79">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D79">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E79">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="F79">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="G79">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H79">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="I79">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 23:36:47</v>
+        <v>2023-09-29 20:50:59</v>
       </c>
       <c r="B80">
-        <v>275.98</v>
+        <v>259.5</v>
       </c>
       <c r="C80">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F80">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H80">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 03:14:04</v>
+        <v>2023-09-30 00:29:44</v>
       </c>
       <c r="B81">
-        <v>275.98</v>
+        <v>255</v>
       </c>
       <c r="C81">
-        <v>325.13</v>
+        <v>335.66</v>
       </c>
       <c r="D81">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E81">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F81">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G81">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H81">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I81">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 06:50:16</v>
+        <v>2023-09-30 04:03:18</v>
       </c>
       <c r="B82">
-        <v>275.98</v>
+        <v>255</v>
       </c>
       <c r="C82">
-        <v>325.13</v>
+        <v>332.47</v>
       </c>
       <c r="D82">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E82">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="F82">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="G82">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I82">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 10:30:10</v>
+        <v>2023-09-30 04:08:59</v>
       </c>
       <c r="B83">
-        <v>275.98</v>
+        <v>255</v>
       </c>
       <c r="C83">
-        <v>325.13</v>
+        <v>332.47</v>
       </c>
       <c r="D83">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E83">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="F83">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="I83">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 14:08:25</v>
+        <v>2023-09-30 07:44:48</v>
       </c>
       <c r="B84">
-        <v>275.98</v>
+        <v>255</v>
       </c>
       <c r="C84">
-        <v>325.13</v>
+        <v>332.47</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E84">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F84">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G84">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H84">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="I84">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 17:50:10</v>
+        <v>2023-09-30 11:23:03</v>
       </c>
       <c r="B85">
-        <v>275.48</v>
+        <v>254.49</v>
       </c>
       <c r="C85">
-        <v>325.13</v>
+        <v>332.47</v>
       </c>
       <c r="D85">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E85">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F85">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H85">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="I85">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 21:29:54</v>
+        <v>2023-09-30 15:05:26</v>
       </c>
       <c r="B86">
-        <v>275.98</v>
+        <v>250</v>
       </c>
       <c r="C86">
-        <v>325.13</v>
+        <v>332.47</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E86">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F86">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G86">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H86">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 01:09:03</v>
+        <v>2023-09-30 18:43:03</v>
       </c>
       <c r="B87">
-        <v>275.98</v>
+        <v>247.5</v>
       </c>
       <c r="C87">
-        <v>325.13</v>
+        <v>332.47</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E87">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F87">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G87">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H87">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 04:44:50</v>
+        <v>2023-09-30 22:22:27</v>
       </c>
       <c r="B88">
-        <v>276</v>
+        <v>247.5</v>
       </c>
       <c r="C88">
-        <v>314.47</v>
+        <v>332.47</v>
       </c>
       <c r="D88">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E88">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F88">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G88">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 08:19:47</v>
+        <v>2023-10-01 02:03:00</v>
       </c>
       <c r="B89">
-        <v>275</v>
+        <v>247.49</v>
       </c>
       <c r="C89">
-        <v>314.47</v>
+        <v>332.47</v>
       </c>
       <c r="D89">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E89">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F89">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G89">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 11:59:25</v>
+        <v>2023-10-01 05:40:22</v>
       </c>
       <c r="B90">
-        <v>275</v>
+        <v>247.49</v>
       </c>
       <c r="C90">
-        <v>314.47</v>
+        <v>314.66</v>
       </c>
       <c r="D90">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E90">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F90">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G90">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H90">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-28 15:37:45</v>
+        <v>2023-10-01 09:15:22</v>
       </c>
       <c r="B91">
-        <v>274</v>
+        <v>247.5</v>
       </c>
       <c r="C91">
-        <v>314.47</v>
+        <v>314.66</v>
       </c>
       <c r="D91">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>0.43</v>
@@ -2856,39 +2856,39 @@
         <v>0.34</v>
       </c>
       <c r="G91">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="I91">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-28 19:19:11</v>
+        <v>2023-10-01 12:54:46</v>
       </c>
       <c r="B92">
-        <v>274</v>
+        <v>247.5</v>
       </c>
       <c r="C92">
-        <v>314.47</v>
+        <v>314.66</v>
       </c>
       <c r="D92">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E92">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="F92">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="G92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H92">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -2896,57 +2896,57 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-28 22:58:46</v>
+        <v>2023-10-01 16:34:10</v>
       </c>
       <c r="B93">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C93">
-        <v>314.47</v>
+        <v>314.66</v>
       </c>
       <c r="D93">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="F93">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="G93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 02:39:46</v>
+        <v>2023-10-01 20:15:40</v>
       </c>
       <c r="B94">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C94">
-        <v>335.66</v>
+        <v>314.66</v>
       </c>
       <c r="D94">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E94">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="F94">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="G94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H94">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I94">
         <v>5</v>
@@ -2954,144 +2954,144 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 06:20:10</v>
+        <v>2023-10-01 23:55:10</v>
       </c>
       <c r="B95">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C95">
-        <v>335.66</v>
+        <v>314.66</v>
       </c>
       <c r="D95">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E95">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="F95">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H95">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 10:00:48</v>
+        <v>2023-10-02 03:35:20</v>
       </c>
       <c r="B96">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C96">
-        <v>335.66</v>
+        <v>330.13</v>
       </c>
       <c r="D96">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E96">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="F96">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="G96">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H96">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-29 13:38:37</v>
+        <v>2023-10-02 07:09:58</v>
       </c>
       <c r="B97">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C97">
-        <v>335.66</v>
+        <v>330.13</v>
       </c>
       <c r="D97">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E97">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="F97">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="G97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H97">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-29 17:15:08</v>
+        <v>2023-10-02 10:48:32</v>
       </c>
       <c r="B98">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C98">
-        <v>335.66</v>
+        <v>330.13</v>
       </c>
       <c r="D98">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E98">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="F98">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="G98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H98">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-29 20:50:59</v>
+        <v>2023-10-02 14:27:04</v>
       </c>
       <c r="B99">
-        <v>259.5</v>
+        <v>269.89</v>
       </c>
       <c r="C99">
-        <v>335.66</v>
+        <v>330.13</v>
       </c>
       <c r="D99">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E99">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="F99">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="G99">
         <v>9</v>
       </c>
       <c r="H99">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I99">
         <v>5</v>
@@ -3099,28 +3099,28 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 00:29:44</v>
+        <v>2023-10-02 18:04:35</v>
       </c>
       <c r="B100">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C100">
-        <v>335.66</v>
+        <v>330.13</v>
       </c>
       <c r="D100">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E100">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="F100">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="G100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H100">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I100">
         <v>5</v>
@@ -3128,231 +3128,231 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 04:03:18</v>
+        <v>2023-10-02 21:44:51</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C101">
-        <v>332.47</v>
+        <v>330.13</v>
       </c>
       <c r="D101">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E101">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="F101">
-        <v>0.39</v>
+        <v>0.56</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 04:08:59</v>
+        <v>2023-10-03 01:24:11</v>
       </c>
       <c r="B102">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C102">
-        <v>332.47</v>
+        <v>330.13</v>
       </c>
       <c r="D102">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E102">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="F102">
-        <v>0.39</v>
+        <v>0.56</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H102">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-30 07:44:48</v>
+        <v>2023-10-03 05:05:17</v>
       </c>
       <c r="B103">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C103">
-        <v>332.47</v>
+        <v>377.91</v>
       </c>
       <c r="D103">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E103">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F103">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H103">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-30 11:23:03</v>
+        <v>2023-10-03 08:44:50</v>
       </c>
       <c r="B104">
-        <v>254.49</v>
+        <v>270</v>
       </c>
       <c r="C104">
-        <v>332.47</v>
+        <v>377.91</v>
       </c>
       <c r="D104">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E104">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F104">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H104">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-30 15:05:26</v>
+        <v>2023-10-03 12:24:00</v>
       </c>
       <c r="B105">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C105">
-        <v>332.47</v>
+        <v>377.91</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E105">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F105">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H105">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-30 18:43:03</v>
+        <v>2023-10-03 16:02:28</v>
       </c>
       <c r="B106">
-        <v>247.5</v>
+        <v>270</v>
       </c>
       <c r="C106">
-        <v>332.47</v>
+        <v>377.91</v>
       </c>
       <c r="D106">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E106">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F106">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H106">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-30 22:22:27</v>
+        <v>2023-10-03 19:35:04</v>
       </c>
       <c r="B107">
-        <v>247.5</v>
+        <v>272</v>
       </c>
       <c r="C107">
-        <v>332.47</v>
+        <v>377.91</v>
       </c>
       <c r="D107">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E107">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F107">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="H107">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-01 02:03:00</v>
+        <v>2023-10-03 23:15:07</v>
       </c>
       <c r="B108">
-        <v>247.49</v>
+        <v>272</v>
       </c>
       <c r="C108">
-        <v>332.47</v>
+        <v>377.91</v>
       </c>
       <c r="D108">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E108">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F108">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="I108">
         <v>6</v>
@@ -3360,144 +3360,144 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-01 05:40:22</v>
+        <v>2023-10-04 02:56:26</v>
       </c>
       <c r="B109">
-        <v>247.49</v>
+        <v>273</v>
       </c>
       <c r="C109">
-        <v>314.66</v>
+        <v>355.49</v>
       </c>
       <c r="D109">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E109">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F109">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G109">
         <v>10</v>
       </c>
       <c r="H109">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-01 09:15:22</v>
+        <v>2023-10-04 06:36:17</v>
       </c>
       <c r="B110">
-        <v>247.5</v>
+        <v>273</v>
       </c>
       <c r="C110">
-        <v>314.66</v>
+        <v>355.49</v>
       </c>
       <c r="D110">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E110">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="F110">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="G110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H110">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-01 12:54:46</v>
+        <v>2023-10-04 10:16:54</v>
       </c>
       <c r="B111">
-        <v>247.5</v>
+        <v>273</v>
       </c>
       <c r="C111">
-        <v>314.66</v>
+        <v>355.49</v>
       </c>
       <c r="D111">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E111">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="F111">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G111">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H111">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-01 16:34:10</v>
+        <v>2023-10-04 13:55:58</v>
       </c>
       <c r="B112">
+        <v>274</v>
+      </c>
+      <c r="C112">
+        <v>355.49</v>
+      </c>
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="E112">
+        <v>0.5</v>
+      </c>
+      <c r="F112">
+        <v>0.4</v>
+      </c>
+      <c r="G112">
+        <v>12</v>
+      </c>
+      <c r="H112">
         <v>248</v>
       </c>
-      <c r="C112">
-        <v>314.66</v>
-      </c>
-      <c r="D112">
-        <v>47</v>
-      </c>
-      <c r="E112">
-        <v>0.55</v>
-      </c>
-      <c r="F112">
-        <v>0.44</v>
-      </c>
-      <c r="G112">
-        <v>9</v>
-      </c>
-      <c r="H112">
-        <v>223</v>
-      </c>
       <c r="I112">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-01 20:15:40</v>
+        <v>2023-10-04 17:34:40</v>
       </c>
       <c r="B113">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C113">
-        <v>314.66</v>
+        <v>355.49</v>
       </c>
       <c r="D113">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E113">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G113">
         <v>10</v>
       </c>
       <c r="H113">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="I113">
         <v>5</v>
@@ -3505,115 +3505,115 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-01 23:55:10</v>
+        <v>2023-10-04 21:11:38</v>
       </c>
       <c r="B114">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C114">
-        <v>314.66</v>
+        <v>355.49</v>
       </c>
       <c r="D114">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E114">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="F114">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H114">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-02 03:35:20</v>
+        <v>2023-10-05 00:49:29</v>
       </c>
       <c r="B115">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C115">
-        <v>330.13</v>
+        <v>355.49</v>
       </c>
       <c r="D115">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E115">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="F115">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H115">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-02 07:09:58</v>
+        <v>2023-10-05 00:54:50</v>
       </c>
       <c r="B116">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C116">
-        <v>330.13</v>
+        <v>355.49</v>
       </c>
       <c r="D116">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E116">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="F116">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="G116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H116">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-02 10:48:32</v>
+        <v>2023-10-05 04:37:10</v>
       </c>
       <c r="B117">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C117">
-        <v>330.13</v>
+        <v>350.03</v>
       </c>
       <c r="D117">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E117">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="F117">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H117">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="I117">
         <v>6</v>
@@ -3621,347 +3621,347 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-02 14:27:04</v>
+        <v>2023-10-05 08:15:43</v>
       </c>
       <c r="B118">
-        <v>269.89</v>
+        <v>275</v>
       </c>
       <c r="C118">
-        <v>330.13</v>
+        <v>350.03</v>
       </c>
       <c r="D118">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E118">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
       <c r="F118">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="G118">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H118">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-02 18:04:35</v>
+        <v>2023-10-05 11:57:55</v>
       </c>
       <c r="B119">
-        <v>270</v>
+        <v>273.89</v>
       </c>
       <c r="C119">
-        <v>330.13</v>
+        <v>350.03</v>
       </c>
       <c r="D119">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E119">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="F119">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H119">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-02 21:44:51</v>
+        <v>2023-10-05 15:37:12</v>
       </c>
       <c r="B120">
-        <v>270</v>
+        <v>273.89</v>
       </c>
       <c r="C120">
-        <v>330.13</v>
+        <v>350.03</v>
       </c>
       <c r="D120">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E120">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="F120">
-        <v>0.56</v>
+        <v>0.48</v>
       </c>
       <c r="G120">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H120">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 01:24:11</v>
+        <v>2023-10-05 19:16:53</v>
       </c>
       <c r="B121">
-        <v>270</v>
+        <v>273.89</v>
       </c>
       <c r="C121">
-        <v>330.13</v>
+        <v>350.03</v>
       </c>
       <c r="D121">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E121">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="F121">
-        <v>0.56</v>
+        <v>0.48</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H121">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-03 05:05:17</v>
+        <v>2023-10-05 22:53:11</v>
       </c>
       <c r="B122">
-        <v>270</v>
+        <v>274.5</v>
       </c>
       <c r="C122">
-        <v>377.91</v>
+        <v>350.03</v>
       </c>
       <c r="D122">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E122">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H122">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="I122">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-03 08:44:50</v>
+        <v>2023-10-06 02:29:05</v>
       </c>
       <c r="B123">
-        <v>270</v>
+        <v>274.5</v>
       </c>
       <c r="C123">
-        <v>377.91</v>
+        <v>351.71</v>
       </c>
       <c r="D123">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E123">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H123">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-03 12:24:00</v>
+        <v>2023-10-06 06:08:33</v>
       </c>
       <c r="B124">
-        <v>270</v>
+        <v>274.5</v>
       </c>
       <c r="C124">
-        <v>377.91</v>
+        <v>351.71</v>
       </c>
       <c r="D124">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E124">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F124">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G124">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H124">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-03 16:02:28</v>
+        <v>2023-10-06 09:45:07</v>
       </c>
       <c r="B125">
-        <v>270</v>
+        <v>274.5</v>
       </c>
       <c r="C125">
-        <v>377.91</v>
+        <v>351.71</v>
       </c>
       <c r="D125">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E125">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F125">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G125">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H125">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-03 19:35:04</v>
+        <v>2023-10-06 13:27:33</v>
       </c>
       <c r="B126">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C126">
-        <v>377.91</v>
+        <v>351.71</v>
       </c>
       <c r="D126">
         <v>38</v>
       </c>
       <c r="E126">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H126">
         <v>260</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-03 23:15:07</v>
+        <v>2023-10-06 17:06:48</v>
       </c>
       <c r="B127">
-        <v>272</v>
+        <v>273.5</v>
       </c>
       <c r="C127">
-        <v>377.91</v>
+        <v>351.71</v>
       </c>
       <c r="D127">
         <v>39</v>
       </c>
       <c r="E127">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G127">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H127">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I127">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 02:56:26</v>
+        <v>2023-10-06 20:46:26</v>
       </c>
       <c r="B128">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C128">
-        <v>355.49</v>
+        <v>351.71</v>
       </c>
       <c r="D128">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E128">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H128">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="I128">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 06:36:17</v>
+        <v>2023-10-07 00:26:18</v>
       </c>
       <c r="B129">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C129">
-        <v>355.49</v>
+        <v>351.71</v>
       </c>
       <c r="D129">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E129">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H129">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I129">
         <v>7</v>
@@ -3969,54 +3969,54 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-04 10:16:54</v>
+        <v>2023-10-07 04:07:17</v>
       </c>
       <c r="B130">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C130">
-        <v>355.49</v>
+        <v>349.96</v>
       </c>
       <c r="D130">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G130">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H130">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I130">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-04 13:55:58</v>
+        <v>2023-10-07 07:45:19</v>
       </c>
       <c r="B131">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C131">
-        <v>355.49</v>
+        <v>349.96</v>
       </c>
       <c r="D131">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F131">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="G131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131">
         <v>248</v>
@@ -4027,173 +4027,173 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-04 17:34:40</v>
+        <v>2023-10-07 11:18:20</v>
       </c>
       <c r="B132">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C132">
-        <v>355.49</v>
+        <v>349.96</v>
       </c>
       <c r="D132">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E132">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G132">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H132">
         <v>248</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-04 21:11:38</v>
+        <v>2023-10-07 11:22:51</v>
       </c>
       <c r="B133">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C133">
-        <v>355.49</v>
+        <v>349.96</v>
       </c>
       <c r="D133">
         <v>38</v>
       </c>
       <c r="E133">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G133">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H133">
         <v>248</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 00:49:29</v>
+        <v>2023-10-07 15:00:33</v>
       </c>
       <c r="B134">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C134">
-        <v>355.49</v>
+        <v>349.96</v>
       </c>
       <c r="D134">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E134">
         <v>0.57</v>
       </c>
       <c r="F134">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H134">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I134">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 00:54:50</v>
+        <v>2023-10-07 18:38:22</v>
       </c>
       <c r="B135">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C135">
-        <v>355.49</v>
+        <v>349.96</v>
       </c>
       <c r="D135">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E135">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H135">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I135">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-05 04:37:10</v>
+        <v>2023-10-07 22:16:56</v>
       </c>
       <c r="B136">
-        <v>275</v>
+        <v>269.8</v>
       </c>
       <c r="C136">
-        <v>350.03</v>
+        <v>349.96</v>
       </c>
       <c r="D136">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E136">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G136">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H136">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I136">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-05 08:15:43</v>
+        <v>2023-10-08 02:00:41</v>
       </c>
       <c r="B137">
-        <v>275</v>
+        <v>269.77</v>
       </c>
       <c r="C137">
-        <v>350.03</v>
+        <v>349.96</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E137">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F137">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G137">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H137">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I137">
         <v>6</v>
@@ -4201,28 +4201,28 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-05 11:57:55</v>
+        <v>2023-10-08 05:38:31</v>
       </c>
       <c r="B138">
-        <v>273.89</v>
+        <v>269.77</v>
       </c>
       <c r="C138">
-        <v>350.03</v>
+        <v>349.96</v>
       </c>
       <c r="D138">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E138">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F138">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G138">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H138">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I138">
         <v>6</v>
@@ -4230,57 +4230,57 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-05 15:37:12</v>
+        <v>2023-10-08 09:18:23</v>
       </c>
       <c r="B139">
-        <v>273.89</v>
+        <v>269.77</v>
       </c>
       <c r="C139">
-        <v>350.03</v>
+        <v>349.96</v>
       </c>
       <c r="D139">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E139">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G139">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H139">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I139">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-05 19:16:53</v>
+        <v>2023-10-08 12:58:10</v>
       </c>
       <c r="B140">
-        <v>273.89</v>
+        <v>269.77</v>
       </c>
       <c r="C140">
-        <v>350.03</v>
+        <v>349.96</v>
       </c>
       <c r="D140">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E140">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="F140">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G140">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H140">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I140">
         <v>8</v>
@@ -4288,57 +4288,57 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-05 22:53:11</v>
+        <v>2023-10-08 16:37:16</v>
       </c>
       <c r="B141">
-        <v>274.5</v>
+        <v>273.39</v>
       </c>
       <c r="C141">
-        <v>350.03</v>
+        <v>349.96</v>
       </c>
       <c r="D141">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E141">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
       <c r="F141">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="G141">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H141">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I141">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 02:29:05</v>
+        <v>2023-10-08 20:16:40</v>
       </c>
       <c r="B142">
-        <v>274.5</v>
+        <v>273.3</v>
       </c>
       <c r="C142">
-        <v>351.71</v>
+        <v>349.96</v>
       </c>
       <c r="D142">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E142">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="F142">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="G142">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H142">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I142">
         <v>8</v>
@@ -4346,115 +4346,115 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-06 06:08:33</v>
+        <v>2023-10-08 23:54:42</v>
       </c>
       <c r="B143">
-        <v>274.5</v>
+        <v>273.3</v>
       </c>
       <c r="C143">
-        <v>351.71</v>
+        <v>349.96</v>
       </c>
       <c r="D143">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E143">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="F143">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="G143">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H143">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I143">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-06 09:45:07</v>
+        <v>2023-10-09 03:31:56</v>
       </c>
       <c r="B144">
-        <v>274.5</v>
+        <v>273.3</v>
       </c>
       <c r="C144">
-        <v>351.71</v>
+        <v>367.51</v>
       </c>
       <c r="D144">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E144">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="F144">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="G144">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H144">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I144">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-06 13:27:33</v>
+        <v>2023-10-09 07:09:38</v>
       </c>
       <c r="B145">
-        <v>274</v>
+        <v>273.3</v>
       </c>
       <c r="C145">
-        <v>351.71</v>
+        <v>367.51</v>
       </c>
       <c r="D145">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E145">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="F145">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="G145">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H145">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I145">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-06 17:06:48</v>
+        <v>2023-10-09 10:49:44</v>
       </c>
       <c r="B146">
-        <v>273.5</v>
+        <v>273</v>
       </c>
       <c r="C146">
-        <v>351.71</v>
+        <v>367.51</v>
       </c>
       <c r="D146">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E146">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="F146">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="G146">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H146">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I146">
         <v>8</v>
@@ -4462,347 +4462,347 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-06 20:46:26</v>
+        <v>2023-10-09 14:28:32</v>
       </c>
       <c r="B147">
-        <v>270</v>
+        <v>273.2</v>
       </c>
       <c r="C147">
-        <v>351.71</v>
+        <v>367.51</v>
       </c>
       <c r="D147">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E147">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="F147">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="G147">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H147">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 00:26:18</v>
+        <v>2023-10-09 18:11:55</v>
       </c>
       <c r="B148">
-        <v>270</v>
+        <v>269.89</v>
       </c>
       <c r="C148">
-        <v>351.71</v>
+        <v>367.51</v>
       </c>
       <c r="D148">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E148">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="F148">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="G148">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H148">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I148">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-07 04:07:17</v>
+        <v>2023-10-09 21:50:03</v>
       </c>
       <c r="B149">
-        <v>270</v>
+        <v>269.89</v>
       </c>
       <c r="C149">
-        <v>349.96</v>
+        <v>367.51</v>
       </c>
       <c r="D149">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E149">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="F149">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="G149">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I149">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-07 07:45:19</v>
+        <v>2023-10-10 01:25:14</v>
       </c>
       <c r="B150">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C150">
-        <v>349.96</v>
+        <v>367.51</v>
       </c>
       <c r="D150">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E150">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="F150">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="G150">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H150">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I150">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-07 11:18:20</v>
+        <v>2023-10-10 05:02:08</v>
       </c>
       <c r="B151">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C151">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D151">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E151">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="F151">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="G151">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H151">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I151">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-07 11:22:51</v>
+        <v>2023-10-10 08:40:09</v>
       </c>
       <c r="B152">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C152">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D152">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E152">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="F152">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="G152">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H152">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I152">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-07 15:00:33</v>
+        <v>2023-10-10 12:18:20</v>
       </c>
       <c r="B153">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C153">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D153">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E153">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
       <c r="F153">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="G153">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H153">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I153">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-07 18:38:22</v>
+        <v>2023-10-10 16:00:32</v>
       </c>
       <c r="B154">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C154">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D154">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F154">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="G154">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H154">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I154">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-07 22:16:56</v>
+        <v>2023-10-10 19:39:40</v>
       </c>
       <c r="B155">
-        <v>269.8</v>
+        <v>268</v>
       </c>
       <c r="C155">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D155">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F155">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="G155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H155">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I155">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-08 02:00:41</v>
+        <v>2023-10-10 23:20:17</v>
       </c>
       <c r="B156">
-        <v>269.77</v>
+        <v>268</v>
       </c>
       <c r="C156">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D156">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F156">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G156">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H156">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I156">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-08 05:38:31</v>
+        <v>2023-10-11 02:59:43</v>
       </c>
       <c r="B157">
-        <v>269.77</v>
+        <v>270</v>
       </c>
       <c r="C157">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D157">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F157">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G157">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H157">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I157">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-08 09:18:23</v>
+        <v>2023-10-11 06:38:17</v>
       </c>
       <c r="B158">
-        <v>269.77</v>
+        <v>270</v>
       </c>
       <c r="C158">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D158">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F158">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G158">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H158">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -4810,86 +4810,86 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-08 12:58:10</v>
+        <v>2023-10-11 10:12:16</v>
       </c>
       <c r="B159">
-        <v>269.77</v>
+        <v>270</v>
       </c>
       <c r="C159">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D159">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E159">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="F159">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="G159">
         <v>17</v>
       </c>
       <c r="H159">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I159">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-08 16:37:16</v>
+        <v>2023-10-11 10:17:49</v>
       </c>
       <c r="B160">
-        <v>273.39</v>
+        <v>270</v>
       </c>
       <c r="C160">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D160">
         <v>39</v>
       </c>
       <c r="E160">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="F160">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G160">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H160">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I160">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-08 20:16:40</v>
+        <v>2023-10-11 13:51:34</v>
       </c>
       <c r="B161">
-        <v>273.3</v>
+        <v>270</v>
       </c>
       <c r="C161">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D161">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E161">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F161">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="G161">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H161">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I161">
         <v>8</v>
@@ -4897,115 +4897,115 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-08 23:54:42</v>
+        <v>2023-10-11 17:31:40</v>
       </c>
       <c r="B162">
-        <v>273.3</v>
+        <v>266</v>
       </c>
       <c r="C162">
-        <v>349.96</v>
+        <v>355.22</v>
       </c>
       <c r="D162">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E162">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F162">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G162">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H162">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I162">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-09 03:31:56</v>
+        <v>2023-10-11 21:11:14</v>
       </c>
       <c r="B163">
-        <v>273.3</v>
+        <v>266</v>
       </c>
       <c r="C163">
-        <v>367.51</v>
+        <v>355.22</v>
       </c>
       <c r="D163">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E163">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F163">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G163">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H163">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I163">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-09 07:09:38</v>
+        <v>2023-10-12 00:50:58</v>
       </c>
       <c r="B164">
-        <v>273.3</v>
+        <v>270</v>
       </c>
       <c r="C164">
-        <v>367.51</v>
+        <v>355.22</v>
       </c>
       <c r="D164">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E164">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="F164">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G164">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H164">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I164">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-09 10:49:44</v>
+        <v>2023-10-12 04:29:41</v>
       </c>
       <c r="B165">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C165">
-        <v>367.51</v>
+        <v>357.11</v>
       </c>
       <c r="D165">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E165">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F165">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="G165">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H165">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I165">
         <v>8</v>
@@ -5013,57 +5013,57 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-09 14:28:32</v>
+        <v>2023-10-12 08:10:49</v>
       </c>
       <c r="B166">
-        <v>273.2</v>
+        <v>270</v>
       </c>
       <c r="C166">
-        <v>367.51</v>
+        <v>357.11</v>
       </c>
       <c r="D166">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E166">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="F166">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G166">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H166">
         <v>253</v>
       </c>
       <c r="I166">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-09 18:11:55</v>
+        <v>2023-10-12 11:49:09</v>
       </c>
       <c r="B167">
-        <v>269.89</v>
+        <v>270</v>
       </c>
       <c r="C167">
-        <v>367.51</v>
+        <v>357.11</v>
       </c>
       <c r="D167">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F167">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="G167">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H167">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I167">
         <v>9</v>
@@ -5071,28 +5071,28 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-09 21:50:03</v>
+        <v>2023-10-12 15:20:28</v>
       </c>
       <c r="B168">
-        <v>269.89</v>
+        <v>271.5</v>
       </c>
       <c r="C168">
-        <v>367.51</v>
+        <v>357.11</v>
       </c>
       <c r="D168">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F168">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="G168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H168">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I168">
         <v>9</v>
@@ -5100,132 +5100,132 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-10 01:25:14</v>
+        <v>2023-10-12 15:26:37</v>
       </c>
       <c r="B169">
-        <v>269</v>
+        <v>271.5</v>
       </c>
       <c r="C169">
-        <v>367.51</v>
+        <v>357.11</v>
       </c>
       <c r="D169">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E169">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F169">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="G169">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H169">
         <v>255</v>
       </c>
       <c r="I169">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-10 05:02:08</v>
+        <v>2023-10-12 19:02:05</v>
       </c>
       <c r="B170">
-        <v>268</v>
+        <v>271.5</v>
       </c>
       <c r="C170">
-        <v>355.22</v>
+        <v>357.11</v>
       </c>
       <c r="D170">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E170">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="F170">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="G170">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H170">
         <v>255</v>
       </c>
       <c r="I170">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-10 08:40:09</v>
+        <v>2023-10-12 22:41:55</v>
       </c>
       <c r="B171">
-        <v>268</v>
+        <v>271.5</v>
       </c>
       <c r="C171">
-        <v>355.22</v>
+        <v>357.11</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E171">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="F171">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="G171">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H171">
         <v>255</v>
       </c>
       <c r="I171">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-10 12:18:20</v>
+        <v>2023-10-13 02:21:10</v>
       </c>
       <c r="B172">
-        <v>268</v>
+        <v>273.2</v>
       </c>
       <c r="C172">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D172">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E172">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F172">
         <v>0.28</v>
       </c>
       <c r="G172">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H172">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I172">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-10 16:00:32</v>
+        <v>2023-10-13 06:02:48</v>
       </c>
       <c r="B173">
-        <v>268</v>
+        <v>273.2</v>
       </c>
       <c r="C173">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D173">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E173">
         <v>0.3</v>
@@ -5234,27 +5234,27 @@
         <v>0.28</v>
       </c>
       <c r="G173">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H173">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I173">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-10 19:39:40</v>
+        <v>2023-10-13 09:42:39</v>
       </c>
       <c r="B174">
-        <v>268</v>
+        <v>273.2</v>
       </c>
       <c r="C174">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D174">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E174">
         <v>0.3</v>
@@ -5263,126 +5263,126 @@
         <v>0.28</v>
       </c>
       <c r="G174">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H174">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I174">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-10 23:20:17</v>
+        <v>2023-10-13 13:23:28</v>
       </c>
       <c r="B175">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C175">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D175">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E175">
         <v>0.3</v>
       </c>
       <c r="F175">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="G175">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H175">
         <v>256</v>
       </c>
       <c r="I175">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-11 02:59:43</v>
+        <v>2023-10-13 17:02:44</v>
       </c>
       <c r="B176">
-        <v>270</v>
+        <v>273.99</v>
       </c>
       <c r="C176">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D176">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E176">
         <v>0.3</v>
       </c>
       <c r="F176">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="G176">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H176">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I176">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-11 06:38:17</v>
+        <v>2023-10-13 20:41:07</v>
       </c>
       <c r="B177">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C177">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D177">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E177">
         <v>0.3</v>
       </c>
       <c r="F177">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="G177">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H177">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I177">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-11 10:12:16</v>
+        <v>2023-10-14 00:20:53</v>
       </c>
       <c r="B178">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C178">
-        <v>355.22</v>
+        <v>372.58</v>
       </c>
       <c r="D178">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E178">
         <v>0.3</v>
       </c>
       <c r="F178">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="G178">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H178">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I178">
         <v>9</v>
@@ -5390,28 +5390,28 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-11 10:17:49</v>
+        <v>2023-10-14 04:00:05</v>
       </c>
       <c r="B179">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C179">
-        <v>355.22</v>
+        <v>356.98</v>
       </c>
       <c r="D179">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E179">
         <v>0.3</v>
       </c>
       <c r="F179">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="G179">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H179">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I179">
         <v>9</v>
@@ -5419,144 +5419,144 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-11 13:51:34</v>
+        <v>2023-10-14 07:35:54</v>
       </c>
       <c r="B180">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C180">
-        <v>355.22</v>
+        <v>356.98</v>
       </c>
       <c r="D180">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E180">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F180">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G180">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H180">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I180">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-11 17:31:40</v>
+        <v>2023-10-14 07:41:55</v>
       </c>
       <c r="B181">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C181">
-        <v>355.22</v>
+        <v>356.98</v>
       </c>
       <c r="D181">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E181">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F181">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G181">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H181">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I181">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-11 21:11:14</v>
+        <v>2023-10-14 11:21:07</v>
       </c>
       <c r="B182">
-        <v>266</v>
+        <v>273.89</v>
       </c>
       <c r="C182">
-        <v>355.22</v>
+        <v>356.98</v>
       </c>
       <c r="D182">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E182">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F182">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G182">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H182">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I182">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-12 00:50:58</v>
+        <v>2023-10-14 15:01:16</v>
       </c>
       <c r="B183">
-        <v>270</v>
+        <v>273.89</v>
       </c>
       <c r="C183">
-        <v>355.22</v>
+        <v>356.98</v>
       </c>
       <c r="D183">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E183">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F183">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G183">
         <v>21</v>
       </c>
       <c r="H183">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I183">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-12 04:29:41</v>
+        <v>2023-10-14 18:41:12</v>
       </c>
       <c r="B184">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C184">
-        <v>357.11</v>
+        <v>356.98</v>
       </c>
       <c r="D184">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E184">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F184">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G184">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H184">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I184">
         <v>8</v>
@@ -5564,28 +5564,28 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-12 08:10:49</v>
+        <v>2023-10-14 22:21:42</v>
       </c>
       <c r="B185">
-        <v>270</v>
+        <v>269.27</v>
       </c>
       <c r="C185">
-        <v>357.11</v>
+        <v>356.98</v>
       </c>
       <c r="D185">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E185">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F185">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G185">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H185">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I185">
         <v>8</v>
@@ -5593,173 +5593,173 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-12 11:49:09</v>
+        <v>2023-10-15 02:00:56</v>
       </c>
       <c r="B186">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C186">
-        <v>357.11</v>
+        <v>356.98</v>
       </c>
       <c r="D186">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E186">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="F186">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="G186">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H186">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I186">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-12 15:20:28</v>
+        <v>2023-10-15 05:31:28</v>
       </c>
       <c r="B187">
-        <v>271.5</v>
+        <v>275</v>
       </c>
       <c r="C187">
-        <v>357.11</v>
+        <v>393.19</v>
       </c>
       <c r="D187">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E187">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="F187">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="G187">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H187">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I187">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-12 15:26:37</v>
+        <v>2023-10-15 05:38:38</v>
       </c>
       <c r="B188">
-        <v>271.5</v>
+        <v>275</v>
       </c>
       <c r="C188">
-        <v>357.11</v>
+        <v>393.19</v>
       </c>
       <c r="D188">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E188">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="F188">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="G188">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H188">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I188">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-12 19:02:05</v>
+        <v>2023-10-15 09:11:49</v>
       </c>
       <c r="B189">
-        <v>271.5</v>
+        <v>275</v>
       </c>
       <c r="C189">
-        <v>357.11</v>
+        <v>393.19</v>
       </c>
       <c r="D189">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E189">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="F189">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="G189">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H189">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I189">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-12 22:41:55</v>
+        <v>2023-10-15 12:52:35</v>
       </c>
       <c r="B190">
-        <v>271.5</v>
+        <v>275</v>
       </c>
       <c r="C190">
-        <v>357.11</v>
+        <v>393.19</v>
       </c>
       <c r="D190">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E190">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="F190">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="G190">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H190">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I190">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-13 02:21:10</v>
+        <v>2023-10-15 16:31:17</v>
       </c>
       <c r="B191">
-        <v>273.2</v>
+        <v>280</v>
       </c>
       <c r="C191">
-        <v>372.58</v>
+        <v>393.19</v>
       </c>
       <c r="D191">
         <v>35</v>
       </c>
       <c r="E191">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F191">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="G191">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H191">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I191">
         <v>8</v>
@@ -5767,86 +5767,86 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-13 06:02:48</v>
+        <v>2023-10-15 20:09:07</v>
       </c>
       <c r="B192">
-        <v>273.2</v>
+        <v>280</v>
       </c>
       <c r="C192">
-        <v>372.58</v>
+        <v>393.19</v>
       </c>
       <c r="D192">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E192">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F192">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="G192">
         <v>21</v>
       </c>
       <c r="H192">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-13 09:42:39</v>
+        <v>2023-10-15 23:45:55</v>
       </c>
       <c r="B193">
-        <v>273.2</v>
+        <v>283</v>
       </c>
       <c r="C193">
-        <v>372.58</v>
+        <v>393.19</v>
       </c>
       <c r="D193">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E193">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F193">
         <v>0.28</v>
       </c>
       <c r="G193">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H193">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I193">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-13 13:23:28</v>
+        <v>2023-10-16 03:24:50</v>
       </c>
       <c r="B194">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C194">
-        <v>372.58</v>
+        <v>376.09</v>
       </c>
       <c r="D194">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E194">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F194">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G194">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H194">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I194">
         <v>9</v>
@@ -5854,28 +5854,28 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-13 17:02:44</v>
+        <v>2023-10-16 07:04:56</v>
       </c>
       <c r="B195">
-        <v>273.99</v>
+        <v>283</v>
       </c>
       <c r="C195">
-        <v>372.58</v>
+        <v>376.09</v>
       </c>
       <c r="D195">
         <v>34</v>
       </c>
       <c r="E195">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F195">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G195">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H195">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I195">
         <v>9</v>
@@ -5883,28 +5883,28 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-13 20:41:07</v>
+        <v>2023-10-16 10:43:58</v>
       </c>
       <c r="B196">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C196">
-        <v>372.58</v>
+        <v>376.09</v>
       </c>
       <c r="D196">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E196">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F196">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G196">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H196">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I196">
         <v>9</v>
@@ -5912,28 +5912,28 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-14 00:20:53</v>
+        <v>2023-10-16 14:24:00</v>
       </c>
       <c r="B197">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C197">
-        <v>372.58</v>
+        <v>376.09</v>
       </c>
       <c r="D197">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E197">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F197">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H197">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I197">
         <v>9</v>
@@ -5941,28 +5941,28 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-14 04:00:05</v>
+        <v>2023-10-16 18:02:07</v>
       </c>
       <c r="B198">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C198">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D198">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E198">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F198">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G198">
         <v>20</v>
       </c>
       <c r="H198">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I198">
         <v>9</v>
@@ -5970,28 +5970,28 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-14 07:35:54</v>
+        <v>2023-10-16 21:44:46</v>
       </c>
       <c r="B199">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C199">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D199">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E199">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F199">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G199">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H199">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I199">
         <v>9</v>
@@ -5999,202 +5999,202 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-14 07:41:55</v>
+        <v>2023-10-17 01:22:41</v>
       </c>
       <c r="B200">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C200">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D200">
         <v>34</v>
       </c>
       <c r="E200">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F200">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G200">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H200">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I200">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-14 11:21:07</v>
+        <v>2023-10-17 05:02:51</v>
       </c>
       <c r="B201">
-        <v>273.89</v>
+        <v>287.8</v>
       </c>
       <c r="C201">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D201">
         <v>35</v>
       </c>
       <c r="E201">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F201">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G201">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H201">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I201">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-14 15:01:16</v>
+        <v>2023-10-17 08:45:53</v>
       </c>
       <c r="B202">
-        <v>273.89</v>
+        <v>287.8</v>
       </c>
       <c r="C202">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D202">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E202">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F202">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G202">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H202">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I202">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-14 18:41:12</v>
+        <v>2023-10-17 12:23:21</v>
       </c>
       <c r="B203">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C203">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D203">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E203">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F203">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G203">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H203">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I203">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-14 22:21:42</v>
+        <v>2023-10-17 16:03:19</v>
       </c>
       <c r="B204">
-        <v>269.27</v>
+        <v>275</v>
       </c>
       <c r="C204">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D204">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E204">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F204">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G204">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H204">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="I204">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-15 02:00:56</v>
+        <v>2023-10-17 19:41:31</v>
       </c>
       <c r="B205">
         <v>275</v>
       </c>
       <c r="C205">
-        <v>356.98</v>
+        <v>376.09</v>
       </c>
       <c r="D205">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E205">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F205">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G205">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H205">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I205">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-15 05:31:28</v>
+        <v>2023-10-17 23:18:28</v>
       </c>
       <c r="B206">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C206">
-        <v>393.19</v>
+        <v>376.09</v>
       </c>
       <c r="D206">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E206">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F206">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G206">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H206">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I206">
         <v>8</v>
@@ -6202,28 +6202,28 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-15 05:38:38</v>
+        <v>2023-10-17 23:24:09</v>
       </c>
       <c r="B207">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C207">
-        <v>393.19</v>
+        <v>376.09</v>
       </c>
       <c r="D207">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E207">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F207">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G207">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H207">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -6231,28 +6231,28 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-15 09:11:49</v>
+        <v>2023-10-18 03:04:28</v>
       </c>
       <c r="B208">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C208">
-        <v>393.19</v>
+        <v>393.57</v>
       </c>
       <c r="D208">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E208">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F208">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G208">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H208">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I208">
         <v>8</v>
@@ -6260,28 +6260,28 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-15 12:52:35</v>
+        <v>2023-10-18 06:42:59</v>
       </c>
       <c r="B209">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C209">
-        <v>393.19</v>
+        <v>393.57</v>
       </c>
       <c r="D209">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E209">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F209">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="G209">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H209">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I209">
         <v>8</v>
@@ -6289,28 +6289,28 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-15 16:31:17</v>
+        <v>2023-10-18 10:22:13</v>
       </c>
       <c r="B210">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C210">
-        <v>393.19</v>
+        <v>393.57</v>
       </c>
       <c r="D210">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E210">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="F210">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="G210">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H210">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I210">
         <v>8</v>
@@ -6318,25 +6318,25 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-15 20:09:07</v>
+        <v>2023-10-18 14:00:17</v>
       </c>
       <c r="B211">
-        <v>280</v>
+        <v>273.5</v>
       </c>
       <c r="C211">
-        <v>393.19</v>
+        <v>393.57</v>
       </c>
       <c r="D211">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E211">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="F211">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="G211">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H211">
         <v>260</v>
@@ -6347,118 +6347,176 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-15 23:45:55</v>
+        <v>2023-10-18 17:40:35</v>
       </c>
       <c r="B212">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C212">
-        <v>393.19</v>
+        <v>393.57</v>
       </c>
       <c r="D212">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E212">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="F212">
         <v>0.28</v>
       </c>
       <c r="G212">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H212">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I212">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-16 03:24:50</v>
+        <v>2023-10-18 21:15:57</v>
       </c>
       <c r="B213">
-        <v>283</v>
+        <v>281.5</v>
       </c>
       <c r="C213">
-        <v>376.09</v>
+        <v>393.57</v>
       </c>
       <c r="D213">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E213">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="F213">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="G213">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H213">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I213">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>2023-10-16 07:04:56</v>
+        <v>2023-10-18 21:20:30</v>
       </c>
       <c r="B214">
-        <v>283</v>
+        <v>281.5</v>
       </c>
       <c r="C214">
-        <v>376.09</v>
+        <v>393.57</v>
       </c>
       <c r="D214">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E214">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="F214">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="G214">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H214">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I214">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2023-10-16 10:43:58</v>
+        <v>2023-10-19 00:56:30</v>
       </c>
       <c r="B215">
-        <v>283</v>
+        <v>280.5</v>
       </c>
       <c r="C215">
-        <v>376.09</v>
+        <v>393.57</v>
       </c>
       <c r="D215">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E215">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="F215">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G215">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H215">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I215">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>2023-10-19 04:34:27</v>
+      </c>
+      <c r="B216">
+        <v>280.5</v>
+      </c>
+      <c r="C216">
+        <v>381.81</v>
+      </c>
+      <c r="D216">
+        <v>45</v>
+      </c>
+      <c r="E216">
+        <v>0.33</v>
+      </c>
+      <c r="F216">
+        <v>0.26</v>
+      </c>
+      <c r="G216">
+        <v>26</v>
+      </c>
+      <c r="H216">
+        <v>252</v>
+      </c>
+      <c r="I216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>2023-10-19 08:12:39</v>
+      </c>
+      <c r="B217">
+        <v>280</v>
+      </c>
+      <c r="C217">
+        <v>381.81</v>
+      </c>
+      <c r="D217">
+        <v>45</v>
+      </c>
+      <c r="E217">
+        <v>0.33</v>
+      </c>
+      <c r="F217">
+        <v>0.25</v>
+      </c>
+      <c r="G217">
+        <v>27</v>
+      </c>
+      <c r="H217">
+        <v>254</v>
+      </c>
+      <c r="I217">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6528,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I215"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I217"/>
   </ignoredErrors>
 </worksheet>
 </file>